--- a/ISD - EXAMPLE 1 (2).xlsx
+++ b/ISD - EXAMPLE 1 (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38CCC31B6C64C715/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniket\Documents\1_Python\PyCharm\1_Python-Codes\Advance-Excel-Sorter\AD-SET--Advance-Data-Sorting-Exporting-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8F589C-EB7B-4A79-8E56-DAE616307307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE2BC1-989C-4FDE-86FC-1129F3845A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -44,42 +42,6 @@
     <t>Invoice Date</t>
   </si>
   <si>
-    <t>Recipient GSTIN</t>
-  </si>
-  <si>
-    <t>Recipient Name</t>
-  </si>
-  <si>
-    <t>Recipient Address</t>
-  </si>
-  <si>
-    <t>Recipient State</t>
-  </si>
-  <si>
-    <t>Recipient Pincode</t>
-  </si>
-  <si>
-    <t>Recipient Number</t>
-  </si>
-  <si>
-    <t>Supplier GSTIN</t>
-  </si>
-  <si>
-    <t>Supplier Name</t>
-  </si>
-  <si>
-    <t>Supplier Address</t>
-  </si>
-  <si>
-    <t>Supplier  State</t>
-  </si>
-  <si>
-    <t>Supplier Pincode</t>
-  </si>
-  <si>
-    <t>Supplier Number</t>
-  </si>
-  <si>
     <t>CGST</t>
   </si>
   <si>
@@ -125,9 +87,6 @@
     <t>Uttar Pradesh</t>
   </si>
   <si>
-    <t>99999-00001</t>
-  </si>
-  <si>
     <t>01DEF00101</t>
   </si>
   <si>
@@ -140,9 +99,6 @@
     <t>West Bengal</t>
   </si>
   <si>
-    <t>99999-00010</t>
-  </si>
-  <si>
     <t>(906) 863-1197  4309 6th St Menominee, Michigan(MI), 49858</t>
   </si>
   <si>
@@ -170,18 +126,12 @@
     <t>Noida, Gautam Buddha Nagar, Sector 2</t>
   </si>
   <si>
-    <t>99999-00002</t>
-  </si>
-  <si>
     <t>01DEF00102</t>
   </si>
   <si>
     <t>DEF101</t>
   </si>
   <si>
-    <t>99999-00011</t>
-  </si>
-  <si>
     <t>(906) 863-1197  4309 6th St Menominee, Michigan(MI), 49859</t>
   </si>
   <si>
@@ -203,18 +153,12 @@
     <t>Noida, Gautam Buddha Nagar, Sector 3</t>
   </si>
   <si>
-    <t>99999-00003</t>
-  </si>
-  <si>
     <t>01DEF00103</t>
   </si>
   <si>
     <t>DEF102</t>
   </si>
   <si>
-    <t>99999-00012</t>
-  </si>
-  <si>
     <t>(906) 863-1197  4309 6th St Menominee, Michigan(MI), 49860</t>
   </si>
   <si>
@@ -236,18 +180,12 @@
     <t>Noida, Gautam Buddha Nagar, Sector 4</t>
   </si>
   <si>
-    <t>99999-00004</t>
-  </si>
-  <si>
     <t>01DEF00104</t>
   </si>
   <si>
     <t>DEF103</t>
   </si>
   <si>
-    <t>99999-00013</t>
-  </si>
-  <si>
     <t>(906) 863-1197  4309 6th St Menominee, Michigan(MI), 49861</t>
   </si>
   <si>
@@ -269,29 +207,59 @@
     <t>Noida, Gautam Buddha Nagar, Sector 5</t>
   </si>
   <si>
-    <t>99999-00005</t>
-  </si>
-  <si>
     <t>01DEF00105</t>
   </si>
   <si>
     <t>DEF104</t>
   </si>
   <si>
-    <t>99999-00014</t>
-  </si>
-  <si>
     <t>(906) 863-1197  4309 6th St Menominee, Michigan(MI), 49862</t>
   </si>
   <si>
     <t>ABC123456793DEFGH</t>
+  </si>
+  <si>
+    <t>ISD Distributor GSTIN</t>
+  </si>
+  <si>
+    <t>ISD Distributor Name</t>
+  </si>
+  <si>
+    <t>ISD Distributor Address</t>
+  </si>
+  <si>
+    <t>ISD Distributor State</t>
+  </si>
+  <si>
+    <t>ISD Distributor Pincode</t>
+  </si>
+  <si>
+    <t>ISD Distributor State Code</t>
+  </si>
+  <si>
+    <t>Credit Recipient GSTIN</t>
+  </si>
+  <si>
+    <t>Credit Recipient Name</t>
+  </si>
+  <si>
+    <t>Credit Recipient Address</t>
+  </si>
+  <si>
+    <t>Credit Recipient State</t>
+  </si>
+  <si>
+    <t>Credit Recipient Pincode</t>
+  </si>
+  <si>
+    <t>Credit Recipient State Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,33 +667,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
     <col min="20" max="20" width="55.140625" customWidth="1"/>
     <col min="21" max="21" width="20.85546875" customWidth="1"/>
     <col min="22" max="22" width="19.7109375" customWidth="1"/>
     <col min="23" max="23" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,111 +702,111 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
       </c>
       <c r="G2">
         <v>201301</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
+      <c r="H2">
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M2">
         <v>700016</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
+      <c r="N2">
+        <v>17</v>
       </c>
       <c r="O2">
         <v>360</v>
@@ -856,60 +825,60 @@
         <v>885</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>201301</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
+      <c r="H3">
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>700016</v>
       </c>
-      <c r="N3" t="s">
-        <v>47</v>
+      <c r="N3">
+        <v>17</v>
       </c>
       <c r="O3">
         <v>430</v>
@@ -928,60 +897,60 @@
         <v>1274</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="V3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>201301</v>
       </c>
-      <c r="H4" t="s">
-        <v>55</v>
+      <c r="H4">
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M4">
         <v>700016</v>
       </c>
-      <c r="N4" t="s">
-        <v>58</v>
+      <c r="N4">
+        <v>17</v>
       </c>
       <c r="O4">
         <v>622</v>
@@ -1000,60 +969,60 @@
         <v>1188</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>201301</v>
       </c>
-      <c r="H5" t="s">
-        <v>66</v>
+      <c r="H5">
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M5">
         <v>700016</v>
       </c>
-      <c r="N5" t="s">
-        <v>69</v>
+      <c r="N5">
+        <v>17</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1072,60 +1041,60 @@
         <v>766</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>201301</v>
       </c>
-      <c r="H6" t="s">
-        <v>77</v>
+      <c r="H6">
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>700016</v>
       </c>
-      <c r="N6" t="s">
-        <v>80</v>
+      <c r="N6">
+        <v>17</v>
       </c>
       <c r="O6">
         <v>222</v>
@@ -1144,16 +1113,16 @@
         <v>822</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ISD - EXAMPLE 1 (2).xlsx
+++ b/ISD - EXAMPLE 1 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniket\Documents\1_Python\PyCharm\1_Python-Codes\Advance-Excel-Sorter\AD-SET--Advance-Data-Sorting-Exporting-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE2BC1-989C-4FDE-86FC-1129F3845A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E1CAE-BF84-478A-BD6B-3BED35DB592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
         <v>17</v>
       </c>
       <c r="O2">
-        <v>360</v>
+        <v>360.77</v>
       </c>
       <c r="P2">
         <v>500</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="S2">
         <f>SUM(O2,P2,Q2,R2)</f>
-        <v>885</v>
+        <v>885.77</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>21</v>

--- a/ISD - EXAMPLE 1 (2).xlsx
+++ b/ISD - EXAMPLE 1 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniket\Documents\1_Python\PyCharm\1_Python-Codes\Advance-Excel-Sorter\AD-SET--Advance-Data-Sorting-Exporting-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E1CAE-BF84-478A-BD6B-3BED35DB592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A5F5BB-ED2C-4C31-8ABA-28C4BD616B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Credit Recipient State Code</t>
+  </si>
+  <si>
+    <t>Eligible</t>
+  </si>
+  <si>
+    <t>Ineligible</t>
   </si>
 </sst>
 </file>
@@ -321,15 +327,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -665,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -688,170 +703,144 @@
     <col min="13" max="13" width="27.7109375" customWidth="1"/>
     <col min="14" max="14" width="33.140625" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="55.140625" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" customWidth="1"/>
+    <col min="16" max="22" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="55.140625" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R2" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>201301</v>
-      </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>700016</v>
-      </c>
-      <c r="N2">
-        <v>17</v>
-      </c>
-      <c r="O2">
-        <v>360.77</v>
-      </c>
-      <c r="P2">
-        <v>500</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <f>SUM(O2,P2,Q2,R2)</f>
-        <v>885.77</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -863,10 +852,10 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -881,49 +870,55 @@
         <v>17</v>
       </c>
       <c r="O3">
-        <v>430</v>
+        <v>360.77</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S6" si="0">SUM(O3,P3,Q3,R3)</f>
-        <v>1274</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="5" t="s">
+        <v>360.77</v>
+      </c>
+      <c r="T3">
+        <v>500</v>
+      </c>
+      <c r="V3">
+        <v>25</v>
+      </c>
+      <c r="W3">
+        <f>SUM(O3,P3,Q3,R3)</f>
+        <v>885.77</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="AA3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -935,10 +930,10 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -953,49 +948,55 @@
         <v>17</v>
       </c>
       <c r="O4">
-        <v>622</v>
-      </c>
-      <c r="P4">
-        <v>311</v>
+        <v>430</v>
       </c>
       <c r="Q4">
-        <v>255</v>
+        <v>844</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
-        <v>1188</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="U4">
+        <v>844</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>SUM(O4,P4,Q4,R4)</f>
+        <v>1274</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="AA4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1007,10 +1008,10 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -1025,49 +1026,55 @@
         <v>17</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="P5">
-        <v>400</v>
-      </c>
-      <c r="Q5">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
-        <v>766</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="T5">
+        <v>311</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>SUM(O5,P5,Q5,R5)</f>
+        <v>933</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="AA5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1079,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -1097,41 +1104,148 @@
         <v>17</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>400</v>
+      </c>
+      <c r="R6">
+        <v>500</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>400</v>
+      </c>
+      <c r="V6">
+        <v>500</v>
+      </c>
+      <c r="W6">
+        <f>SUM(O6,P6,Q6,R6)</f>
+        <v>900</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>201301</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>700016</v>
+      </c>
+      <c r="N7">
+        <v>17</v>
+      </c>
+      <c r="O7">
         <v>222</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="Q7">
+        <v>366</v>
+      </c>
+      <c r="R7">
         <v>600</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>822</v>
-      </c>
-      <c r="T6" s="4" t="s">
+      <c r="S7">
+        <v>222</v>
+      </c>
+      <c r="U7">
+        <v>366</v>
+      </c>
+      <c r="V7">
+        <v>600</v>
+      </c>
+      <c r="W7">
+        <f>SUM(O7,P7,Q7,R7)</f>
+        <v>1188</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y7" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="Z7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="AA7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" xr:uid="{1FB15508-A62A-4D34-BA28-F737426D5978}"/>
-    <hyperlink ref="V3:V6" r:id="rId2" display="abc123@gmail.com" xr:uid="{022CB226-68DF-4CF4-A40F-AEB09739795A}"/>
-    <hyperlink ref="W2" r:id="rId3" xr:uid="{B919BAED-221E-4C18-8782-CAB9EC8FF6F2}"/>
-    <hyperlink ref="W3:W6" r:id="rId4" display="www.abc1.com" xr:uid="{6E025063-6AD9-4955-9343-C05905E2E2BE}"/>
+    <hyperlink ref="Z3" r:id="rId1" xr:uid="{1FB15508-A62A-4D34-BA28-F737426D5978}"/>
+    <hyperlink ref="Z4:Z7" r:id="rId2" display="abc123@gmail.com" xr:uid="{022CB226-68DF-4CF4-A40F-AEB09739795A}"/>
+    <hyperlink ref="AA3" r:id="rId3" xr:uid="{B919BAED-221E-4C18-8782-CAB9EC8FF6F2}"/>
+    <hyperlink ref="AA4:AA7" r:id="rId4" display="www.abc1.com" xr:uid="{6E025063-6AD9-4955-9343-C05905E2E2BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ISD - EXAMPLE 1 (2).xlsx
+++ b/ISD - EXAMPLE 1 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniket\Documents\1_Python\PyCharm\1_Python-Codes\Advance-Excel-Sorter\AD-SET--Advance-Data-Sorting-Exporting-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A5F5BB-ED2C-4C31-8ABA-28C4BD616B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA89F7-7F61-4BA6-9D5C-BB887056E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA2"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -879,10 +879,10 @@
         <v>25</v>
       </c>
       <c r="S3">
-        <v>360.77</v>
+        <v>222</v>
       </c>
       <c r="T3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V3">
         <v>25</v>
@@ -957,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>430</v>
+        <v>100</v>
       </c>
       <c r="U4">
-        <v>844</v>
+        <v>744</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>622</v>
+        <v>333</v>
       </c>
       <c r="T5">
-        <v>311</v>
+        <v>450</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V6">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="W6">
         <f>SUM(O6,P6,Q6,R6)</f>
@@ -1191,13 +1191,13 @@
         <v>600</v>
       </c>
       <c r="S7">
-        <v>222</v>
+        <v>560</v>
       </c>
       <c r="U7">
-        <v>366</v>
+        <v>766</v>
       </c>
       <c r="V7">
-        <v>600</v>
+        <v>987</v>
       </c>
       <c r="W7">
         <f>SUM(O7,P7,Q7,R7)</f>
@@ -1218,11 +1218,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
@@ -1233,12 +1234,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/ISD - EXAMPLE 1 (2).xlsx
+++ b/ISD - EXAMPLE 1 (2).xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aniket\Documents\1_Python\PyCharm\1_Python-Codes\Advance-Excel-Sorter\AD-SET--Advance-Data-Sorting-Exporting-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA89F7-7F61-4BA6-9D5C-BB887056E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3049FB60-35A5-422A-B91A-B2D66930E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AJ$7</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -42,18 +45,6 @@
     <t>Invoice Date</t>
   </si>
   <si>
-    <t>CGST</t>
-  </si>
-  <si>
-    <t>SGST</t>
-  </si>
-  <si>
-    <t>UTGST</t>
-  </si>
-  <si>
-    <t>IGST</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -259,13 +250,37 @@
   </si>
   <si>
     <t>Ineligible</t>
+  </si>
+  <si>
+    <t>CGST AS CGST</t>
+  </si>
+  <si>
+    <t>CGST AS IGST</t>
+  </si>
+  <si>
+    <t>IGST AS IGST</t>
+  </si>
+  <si>
+    <t>IGST SUM</t>
+  </si>
+  <si>
+    <t>CGST SUM</t>
+  </si>
+  <si>
+    <t>SGST UTGST AS SGST UTGST</t>
+  </si>
+  <si>
+    <t>SGST UTGST AS IGST</t>
+  </si>
+  <si>
+    <t>SGST UTGST SUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +320,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,16 +345,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,10 +369,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -680,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -702,148 +728,196 @@
     <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="27.7109375" customWidth="1"/>
     <col min="14" max="14" width="33.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="22" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="55.140625" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" customWidth="1"/>
+    <col min="22" max="22" width="30.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1"/>
     <col min="26" max="26" width="19.7109375" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
+    <col min="28" max="29" width="20.140625" customWidth="1"/>
+    <col min="30" max="31" width="25.28515625" customWidth="1"/>
+    <col min="33" max="33" width="55.140625" customWidth="1"/>
+    <col min="34" max="34" width="20.85546875" customWidth="1"/>
+    <col min="35" max="35" width="19.7109375" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="Z2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
       <c r="G3">
         <v>201301</v>
@@ -852,16 +926,16 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M3">
         <v>700016</v>
@@ -870,58 +944,92 @@
         <v>17</v>
       </c>
       <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>54</v>
+      </c>
+      <c r="R3">
+        <f>SUM(O3,P3,Q3)</f>
+        <v>79</v>
+      </c>
+      <c r="S3">
         <v>360.77</v>
       </c>
-      <c r="P3">
+      <c r="T3">
+        <f>SUM(S3)</f>
+        <v>360.77</v>
+      </c>
+      <c r="U3">
         <v>500</v>
       </c>
-      <c r="R3">
+      <c r="V3">
+        <f>SUM(U3)</f>
+        <v>500</v>
+      </c>
+      <c r="W3">
+        <f>SUM(R3,T3,V3)</f>
+        <v>939.77</v>
+      </c>
+      <c r="X3">
+        <v>2500</v>
+      </c>
+      <c r="Y3">
+        <v>54</v>
+      </c>
+      <c r="AA3">
+        <f>SUM(X3,Y3,Z3)</f>
+        <v>2554</v>
+      </c>
+      <c r="AB3">
+        <v>360.77</v>
+      </c>
+      <c r="AC3">
+        <f>SUM(AB3)</f>
+        <v>360.77</v>
+      </c>
+      <c r="AD3">
+        <v>500</v>
+      </c>
+      <c r="AE3">
+        <f>SUM(AD3)</f>
+        <v>500</v>
+      </c>
+      <c r="AF3">
+        <f>SUM(AA3,AC3,AE3)</f>
+        <v>3414.77</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="S3">
-        <v>222</v>
-      </c>
-      <c r="T3">
-        <v>600</v>
-      </c>
-      <c r="V3">
-        <v>25</v>
-      </c>
-      <c r="W3">
-        <f>SUM(O3,P3,Q3,R3)</f>
-        <v>885.77</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>201301</v>
@@ -930,16 +1038,16 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M4">
         <v>700016</v>
@@ -948,58 +1056,92 @@
         <v>17</v>
       </c>
       <c r="O4">
-        <v>430</v>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>56</v>
       </c>
       <c r="Q4">
         <v>844</v>
       </c>
       <c r="R4">
+        <f t="shared" ref="R4:R7" si="0">SUM(O4,P4,Q4)</f>
+        <v>900</v>
+      </c>
+      <c r="S4">
+        <v>430</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="1">SUM(S4)</f>
+        <v>430</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V7" si="2">SUM(U4)</f>
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>100</v>
-      </c>
-      <c r="U4">
-        <v>744</v>
-      </c>
-      <c r="V4">
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="3">SUM(R4,T4,V4)</f>
+        <v>1330</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <f>SUM(O4,P4,Q4,R4)</f>
-        <v>1274</v>
-      </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4">
+        <v>56</v>
+      </c>
+      <c r="Z4">
+        <v>844</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA7" si="4">SUM(X4,Y4,Z4)</f>
+        <v>900</v>
+      </c>
+      <c r="AB4">
+        <v>4030</v>
+      </c>
+      <c r="AC4">
+        <f>SUM(AB4)</f>
+        <v>4030</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE7" si="5">SUM(AD4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF7" si="6">SUM(AA4,AC4,AE4)</f>
+        <v>4930</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>201301</v>
@@ -1008,16 +1150,16 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M5">
         <v>700016</v>
@@ -1026,58 +1168,92 @@
         <v>17</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>700</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="S5">
         <v>622</v>
       </c>
-      <c r="P5">
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>622</v>
+      </c>
+      <c r="U5">
         <v>311</v>
       </c>
-      <c r="R5">
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>1633</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>333</v>
-      </c>
-      <c r="T5">
-        <v>450</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f>SUM(O5,P5,Q5,R5)</f>
-        <v>933</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5">
+        <v>700</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="AB5">
+        <v>622</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ref="AC4:AC7" si="7">SUM(AB5)</f>
+        <v>622</v>
+      </c>
+      <c r="AD5">
+        <v>311</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="5"/>
+        <v>311</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="6"/>
+        <v>1633</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>201301</v>
@@ -1086,16 +1262,16 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M6">
         <v>700016</v>
@@ -1104,58 +1280,92 @@
         <v>17</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="R6">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>600</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>400</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X6">
+        <v>500</v>
+      </c>
+      <c r="Y6">
+        <v>100</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="V6">
-        <v>700</v>
-      </c>
-      <c r="W6">
-        <f>SUM(O6,P6,Q6,R6)</f>
-        <v>900</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>400</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>201301</v>
@@ -1164,16 +1374,16 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M7">
         <v>700016</v>
@@ -1182,70 +1392,113 @@
         <v>17</v>
       </c>
       <c r="O7">
-        <v>222</v>
+        <v>600</v>
+      </c>
+      <c r="P7">
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>366</v>
       </c>
       <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1166</v>
+      </c>
+      <c r="S7">
+        <v>222</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>1388</v>
+      </c>
+      <c r="X7">
         <v>600</v>
       </c>
-      <c r="S7">
-        <v>560</v>
-      </c>
-      <c r="U7">
-        <v>766</v>
-      </c>
-      <c r="V7">
-        <v>987</v>
-      </c>
-      <c r="W7">
-        <f>SUM(O7,P7,Q7,R7)</f>
-        <v>1188</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>24</v>
+      <c r="Y7">
+        <v>200</v>
+      </c>
+      <c r="Z7">
+        <v>366</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="4"/>
+        <v>1166</v>
+      </c>
+      <c r="AB7">
+        <v>2222</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="7"/>
+        <v>2222</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="6"/>
+        <v>3388</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <autoFilter ref="A1:AJ7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="20">
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="X1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Z3" r:id="rId1" xr:uid="{1FB15508-A62A-4D34-BA28-F737426D5978}"/>
-    <hyperlink ref="Z4:Z7" r:id="rId2" display="abc123@gmail.com" xr:uid="{022CB226-68DF-4CF4-A40F-AEB09739795A}"/>
-    <hyperlink ref="AA3" r:id="rId3" xr:uid="{B919BAED-221E-4C18-8782-CAB9EC8FF6F2}"/>
-    <hyperlink ref="AA4:AA7" r:id="rId4" display="www.abc1.com" xr:uid="{6E025063-6AD9-4955-9343-C05905E2E2BE}"/>
+    <hyperlink ref="AI3" r:id="rId1" xr:uid="{1FB15508-A62A-4D34-BA28-F737426D5978}"/>
+    <hyperlink ref="AI4:AI7" r:id="rId2" display="abc123@gmail.com" xr:uid="{022CB226-68DF-4CF4-A40F-AEB09739795A}"/>
+    <hyperlink ref="AJ3" r:id="rId3" xr:uid="{B919BAED-221E-4C18-8782-CAB9EC8FF6F2}"/>
+    <hyperlink ref="AJ4:AJ7" r:id="rId4" display="www.abc1.com" xr:uid="{6E025063-6AD9-4955-9343-C05905E2E2BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
